--- a/Christos_first_second/err1_on_f17.xlsx
+++ b/Christos_first_second/err1_on_f17.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.94</v>
+        <v>-9.35</v>
       </c>
       <c r="C2" t="n">
-        <v>1.94</v>
+        <v>9.35</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.25</v>
+        <v>-171.37</v>
       </c>
       <c r="C3" t="n">
-        <v>5.25</v>
+        <v>171.37</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-176.37</v>
+        <v>4.14</v>
       </c>
       <c r="C4" t="n">
-        <v>176.37</v>
+        <v>4.14</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.31</v>
+        <v>5.35</v>
       </c>
       <c r="C5" t="n">
-        <v>2.31</v>
+        <v>5.35</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-168.98</v>
+        <v>0.37</v>
       </c>
       <c r="C6" t="n">
-        <v>168.98</v>
+        <v>0.37</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.35</v>
+        <v>9.98</v>
       </c>
       <c r="C7" t="n">
-        <v>7.35</v>
+        <v>9.98</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.83</v>
+        <v>0.92</v>
       </c>
       <c r="C8" t="n">
-        <v>2.83</v>
+        <v>0.92</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01</v>
+        <v>4.88</v>
       </c>
       <c r="C9" t="n">
-        <v>4.01</v>
+        <v>4.88</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.47</v>
+        <v>5.88</v>
       </c>
       <c r="C10" t="n">
-        <v>11.47</v>
+        <v>5.88</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.36</v>
+        <v>5.31</v>
       </c>
       <c r="C11" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.03</v>
+        <v>-178.81</v>
       </c>
       <c r="C12" t="n">
-        <v>4.03</v>
+        <v>178.81</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -637,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.73</v>
+        <v>-0.88</v>
       </c>
       <c r="C13" t="n">
-        <v>9.73</v>
+        <v>0.88</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.31</v>
+        <v>1.15</v>
       </c>
       <c r="C14" t="n">
-        <v>2.31</v>
+        <v>1.15</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.42</v>
+        <v>-2.3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -697,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.22</v>
+        <v>0.97</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22</v>
+        <v>0.97</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -717,10 +717,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.41</v>
+        <v>-178.87</v>
       </c>
       <c r="C17" t="n">
-        <v>0.41</v>
+        <v>178.87</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -737,10 +737,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.720000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="C18" t="n">
-        <v>8.720000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.39</v>
+        <v>1.11</v>
       </c>
       <c r="C19" t="n">
-        <v>4.39</v>
+        <v>1.11</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -777,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.64</v>
+        <v>3.81</v>
       </c>
       <c r="C20" t="n">
-        <v>7.64</v>
+        <v>3.81</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -797,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.31</v>
+        <v>-10.57</v>
       </c>
       <c r="C21" t="n">
-        <v>3.31</v>
+        <v>10.57</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.95</v>
+        <v>-0.46</v>
       </c>
       <c r="C22" t="n">
-        <v>3.95</v>
+        <v>0.46</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -837,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.52</v>
+        <v>6.86</v>
       </c>
       <c r="C23" t="n">
-        <v>6.52</v>
+        <v>6.86</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -857,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-173.34</v>
+        <v>1.87</v>
       </c>
       <c r="C24" t="n">
-        <v>173.34</v>
+        <v>1.87</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -877,10 +877,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.62</v>
+        <v>5.08</v>
       </c>
       <c r="C25" t="n">
-        <v>6.62</v>
+        <v>5.08</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.83</v>
+        <v>14.52</v>
       </c>
       <c r="C26" t="n">
-        <v>6.83</v>
+        <v>14.52</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -917,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.39</v>
+        <v>0.58</v>
       </c>
       <c r="C27" t="n">
-        <v>3.39</v>
+        <v>0.58</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.73</v>
+        <v>12.4</v>
       </c>
       <c r="C28" t="n">
-        <v>4.73</v>
+        <v>12.4</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -957,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.83</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.83</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -977,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.39</v>
+        <v>6.8</v>
       </c>
       <c r="C30" t="n">
-        <v>4.39</v>
+        <v>6.8</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -997,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3</v>
+        <v>-172.67</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>172.67</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1017,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-174.28</v>
+        <v>7.59</v>
       </c>
       <c r="C32" t="n">
-        <v>174.28</v>
+        <v>7.59</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1037,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.85</v>
+        <v>0.26</v>
       </c>
       <c r="C33" t="n">
-        <v>6.85</v>
+        <v>0.26</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1057,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.74</v>
+        <v>10.77</v>
       </c>
       <c r="C34" t="n">
-        <v>12.74</v>
+        <v>10.77</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1077,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.7</v>
+        <v>-6.28</v>
       </c>
       <c r="C35" t="n">
-        <v>7.7</v>
+        <v>6.28</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1097,10 +1097,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-173.79</v>
+        <v>0.24</v>
       </c>
       <c r="C36" t="n">
-        <v>173.79</v>
+        <v>0.24</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.42</v>
+        <v>-2.49</v>
       </c>
       <c r="C37" t="n">
-        <v>1.42</v>
+        <v>2.49</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1137,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.23</v>
+        <v>-2.89</v>
       </c>
       <c r="C38" t="n">
-        <v>3.23</v>
+        <v>2.89</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1157,10 +1157,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-174.07</v>
+        <v>11.51</v>
       </c>
       <c r="C39" t="n">
-        <v>174.07</v>
+        <v>11.51</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1177,10 +1177,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.32</v>
+        <v>-0.7</v>
       </c>
       <c r="C40" t="n">
-        <v>10.32</v>
+        <v>0.7</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1197,10 +1197,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.02</v>
+        <v>2.78</v>
       </c>
       <c r="C41" t="n">
-        <v>3.02</v>
+        <v>2.78</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1217,10 +1217,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.83</v>
+        <v>4.59</v>
       </c>
       <c r="C42" t="n">
-        <v>7.83</v>
+        <v>4.59</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1237,10 +1237,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.47</v>
+        <v>-2.79</v>
       </c>
       <c r="C43" t="n">
-        <v>1.47</v>
+        <v>2.79</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1257,10 +1257,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.96</v>
+        <v>-3.51</v>
       </c>
       <c r="C44" t="n">
-        <v>2.96</v>
+        <v>3.51</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-10.21</v>
+        <v>-2.5</v>
       </c>
       <c r="C45" t="n">
-        <v>10.21</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.01</v>
+        <v>-0.03</v>
       </c>
       <c r="C46" t="n">
-        <v>1.01</v>
+        <v>0.03</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1317,10 +1317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.63</v>
+        <v>4.66</v>
       </c>
       <c r="C47" t="n">
-        <v>1.63</v>
+        <v>4.66</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1337,10 +1337,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="C48" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1357,10 +1357,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.24</v>
+        <v>-3.92</v>
       </c>
       <c r="C49" t="n">
-        <v>5.24</v>
+        <v>3.92</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1377,10 +1377,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.98</v>
+        <v>1.04</v>
       </c>
       <c r="C50" t="n">
-        <v>3.98</v>
+        <v>1.04</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1397,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.38</v>
+        <v>3.57</v>
       </c>
       <c r="C51" t="n">
-        <v>1.38</v>
+        <v>3.57</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1417,10 +1417,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.26</v>
+        <v>-1.46</v>
       </c>
       <c r="C52" t="n">
-        <v>2.26</v>
+        <v>1.46</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1437,10 +1437,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.92</v>
+        <v>-3.72</v>
       </c>
       <c r="C53" t="n">
-        <v>1.92</v>
+        <v>3.72</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1457,10 +1457,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.51</v>
+        <v>1.38</v>
       </c>
       <c r="C54" t="n">
-        <v>2.51</v>
+        <v>1.38</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.49</v>
+        <v>1.93</v>
       </c>
       <c r="C55" t="n">
-        <v>0.49</v>
+        <v>1.93</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1497,10 +1497,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.78</v>
+        <v>10.47</v>
       </c>
       <c r="C56" t="n">
-        <v>1.78</v>
+        <v>10.47</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1517,10 +1517,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.36</v>
+        <v>4.36</v>
       </c>
       <c r="C57" t="n">
-        <v>5.36</v>
+        <v>4.36</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1537,10 +1537,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.08</v>
+        <v>-172.82</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08</v>
+        <v>172.82</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1557,10 +1557,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.73</v>
+        <v>4.44</v>
       </c>
       <c r="C59" t="n">
-        <v>0.73</v>
+        <v>4.44</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1577,10 +1577,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.12</v>
+        <v>-6.19</v>
       </c>
       <c r="C60" t="n">
-        <v>2.12</v>
+        <v>6.19</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1597,10 +1597,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-171.8</v>
+        <v>6.78</v>
       </c>
       <c r="C61" t="n">
-        <v>171.8</v>
+        <v>6.78</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1617,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.25</v>
+        <v>2.31</v>
       </c>
       <c r="C62" t="n">
-        <v>6.25</v>
+        <v>2.31</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1637,10 +1637,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-11.63</v>
+        <v>-0.49</v>
       </c>
       <c r="C63" t="n">
-        <v>11.63</v>
+        <v>0.49</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-164.65</v>
+        <v>-4.49</v>
       </c>
       <c r="C64" t="n">
-        <v>164.65</v>
+        <v>4.49</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1677,10 +1677,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.41</v>
+        <v>-3.55</v>
       </c>
       <c r="C65" t="n">
-        <v>8.41</v>
+        <v>3.55</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1697,10 +1697,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-8.01</v>
+        <v>7.24</v>
       </c>
       <c r="C66" t="n">
-        <v>8.01</v>
+        <v>7.24</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1717,10 +1717,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-172.3</v>
+        <v>6.33</v>
       </c>
       <c r="C67" t="n">
-        <v>172.3</v>
+        <v>6.33</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1737,10 +1737,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.02</v>
+        <v>-1.06</v>
       </c>
       <c r="C68" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1757,10 +1757,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-8.109999999999999</v>
+        <v>-169.03</v>
       </c>
       <c r="C69" t="n">
-        <v>8.109999999999999</v>
+        <v>169.03</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1777,10 +1777,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.9</v>
+        <v>-3.22</v>
       </c>
       <c r="C70" t="n">
-        <v>6.9</v>
+        <v>3.22</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1797,10 +1797,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.91</v>
+        <v>6.41</v>
       </c>
       <c r="C71" t="n">
-        <v>3.91</v>
+        <v>6.41</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1817,10 +1817,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.95</v>
+        <v>-172.86</v>
       </c>
       <c r="C72" t="n">
-        <v>1.95</v>
+        <v>172.86</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.99</v>
+        <v>-175.99</v>
       </c>
       <c r="C73" t="n">
-        <v>0.99</v>
+        <v>175.99</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1857,10 +1857,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.27</v>
+        <v>-160.65</v>
       </c>
       <c r="C74" t="n">
-        <v>6.27</v>
+        <v>160.65</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1877,10 +1877,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.63</v>
+        <v>-2.89</v>
       </c>
       <c r="C75" t="n">
-        <v>10.63</v>
+        <v>2.89</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1897,10 +1897,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-167.63</v>
+        <v>-4.48</v>
       </c>
       <c r="C76" t="n">
-        <v>167.63</v>
+        <v>4.48</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1917,10 +1917,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.13</v>
+        <v>-0.14</v>
       </c>
       <c r="C77" t="n">
-        <v>7.13</v>
+        <v>0.14</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1937,10 +1937,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.19</v>
+        <v>-169.65</v>
       </c>
       <c r="C78" t="n">
-        <v>2.19</v>
+        <v>169.65</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1957,10 +1957,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.2</v>
+        <v>-172.75</v>
       </c>
       <c r="C79" t="n">
-        <v>2.2</v>
+        <v>172.75</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="C80" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1997,10 +1997,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.4</v>
+        <v>-177.39</v>
       </c>
       <c r="C81" t="n">
-        <v>6.4</v>
+        <v>177.39</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.71</v>
+        <v>-6.73</v>
       </c>
       <c r="C82" t="n">
-        <v>2.71</v>
+        <v>6.73</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2037,10 +2037,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.16</v>
+        <v>-3.01</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16</v>
+        <v>3.01</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -2057,10 +2057,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18</v>
+        <v>-2.89</v>
       </c>
       <c r="C84" t="n">
-        <v>0.18</v>
+        <v>2.89</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -2077,10 +2077,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2097,10 +2097,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.69</v>
+        <v>-171.23</v>
       </c>
       <c r="C86" t="n">
-        <v>1.69</v>
+        <v>171.23</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -2117,10 +2117,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.43</v>
+        <v>10.56</v>
       </c>
       <c r="C87" t="n">
-        <v>4.43</v>
+        <v>10.56</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -2137,10 +2137,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.78</v>
+        <v>-1.26</v>
       </c>
       <c r="C88" t="n">
-        <v>2.78</v>
+        <v>1.26</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -2157,10 +2157,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-4.7</v>
+        <v>-1.33</v>
       </c>
       <c r="C89" t="n">
-        <v>4.7</v>
+        <v>1.33</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2177,10 +2177,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.13</v>
+        <v>3.16</v>
       </c>
       <c r="C90" t="n">
-        <v>2.13</v>
+        <v>3.16</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -2197,10 +2197,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.16</v>
+        <v>2.02</v>
       </c>
       <c r="C91" t="n">
-        <v>1.16</v>
+        <v>2.02</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -2217,10 +2217,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.13</v>
+        <v>-5.33</v>
       </c>
       <c r="C92" t="n">
-        <v>2.13</v>
+        <v>5.33</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -2237,10 +2237,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.25</v>
+        <v>-172.14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25</v>
+        <v>172.14</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -2257,10 +2257,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-13.84</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>13.84</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -2277,10 +2277,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05</v>
+        <v>3.92</v>
       </c>
       <c r="C95" t="n">
-        <v>0.05</v>
+        <v>3.92</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.31</v>
+        <v>5.18</v>
       </c>
       <c r="C96" t="n">
-        <v>11.31</v>
+        <v>5.18</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -2317,10 +2317,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.57</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -2337,10 +2337,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.79</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>7.79</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -2357,10 +2357,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.16</v>
+        <v>-0.82</v>
       </c>
       <c r="C99" t="n">
-        <v>3.16</v>
+        <v>0.82</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2377,10 +2377,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.71</v>
+        <v>-2.35</v>
       </c>
       <c r="C100" t="n">
-        <v>1.71</v>
+        <v>2.35</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2397,10 +2397,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-11.77</v>
+        <v>-2.65</v>
       </c>
       <c r="C101" t="n">
-        <v>11.77</v>
+        <v>2.65</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2409,6 +2409,2006 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>179.56</v>
+      </c>
+      <c r="C107" t="n">
+        <v>179.56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-165.25</v>
+      </c>
+      <c r="C108" t="n">
+        <v>165.25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>175.39</v>
+      </c>
+      <c r="C111" t="n">
+        <v>175.39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-172.87</v>
+      </c>
+      <c r="C117" t="n">
+        <v>172.87</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-169.51</v>
+      </c>
+      <c r="C126" t="n">
+        <v>169.51</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-7.19</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-169</v>
+      </c>
+      <c r="C130" t="n">
+        <v>169</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-168.14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>168.14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-174.01</v>
+      </c>
+      <c r="C153" t="n">
+        <v>174.01</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>179.54</v>
+      </c>
+      <c r="C156" t="n">
+        <v>179.54</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-170.31</v>
+      </c>
+      <c r="C162" t="n">
+        <v>170.31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-5.86</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-166.53</v>
+      </c>
+      <c r="C164" t="n">
+        <v>166.53</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C165" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-15.13</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-10.68</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-175.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-165.27</v>
+      </c>
+      <c r="C176" t="n">
+        <v>165.27</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-7.64</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-154.79</v>
+      </c>
+      <c r="C187" t="n">
+        <v>154.79</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C195" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C197" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="C198" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Christos_first_second/err1_on_f17.xlsx
+++ b/Christos_first_second/err1_on_f17.xlsx
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.97</v>
+        <v>14.63</v>
       </c>
       <c r="C2" t="n">
-        <v>2.97</v>
+        <v>14.63</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.77</v>
+        <v>-3.83</v>
       </c>
       <c r="C3" t="n">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.11</v>
+        <v>-11.68</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11</v>
+        <v>11.68</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.48</v>
+        <v>-4.97</v>
       </c>
       <c r="C5" t="n">
-        <v>0.48</v>
+        <v>4.97</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.98</v>
+        <v>-9.65</v>
       </c>
       <c r="C6" t="n">
-        <v>2.98</v>
+        <v>9.65</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.63</v>
+        <v>-3.91</v>
       </c>
       <c r="C7" t="n">
-        <v>3.63</v>
+        <v>3.91</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.57</v>
+        <v>6.45</v>
       </c>
       <c r="C8" t="n">
-        <v>5.57</v>
+        <v>6.45</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.6</v>
+        <v>-0.23</v>
       </c>
       <c r="C9" t="n">
-        <v>5.6</v>
+        <v>0.23</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.09</v>
+        <v>-3.16</v>
       </c>
       <c r="C10" t="n">
-        <v>8.09</v>
+        <v>3.16</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.14</v>
+        <v>5.19</v>
       </c>
       <c r="C11" t="n">
-        <v>1.14</v>
+        <v>5.19</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -617,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.63</v>
+        <v>1.46</v>
       </c>
       <c r="C12" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -637,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.09</v>
+        <v>8.32</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09</v>
+        <v>8.32</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.05</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>2.05</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -677,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.25</v>
+        <v>8.85</v>
       </c>
       <c r="C15" t="n">
-        <v>2.25</v>
+        <v>8.85</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -697,10 +697,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.14</v>
+        <v>-7.34</v>
       </c>
       <c r="C16" t="n">
-        <v>0.14</v>
+        <v>7.34</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -717,10 +717,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.78</v>
+        <v>-168.85</v>
       </c>
       <c r="C17" t="n">
-        <v>2.78</v>
+        <v>168.85</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -737,10 +737,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.76</v>
+        <v>-11.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2.76</v>
+        <v>11.5</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -757,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.35</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.35</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -777,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.33</v>
+        <v>0.59</v>
       </c>
       <c r="C20" t="n">
-        <v>11.33</v>
+        <v>0.59</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -797,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.51</v>
+        <v>2.79</v>
       </c>
       <c r="C21" t="n">
-        <v>9.51</v>
+        <v>2.79</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -817,10 +817,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.16</v>
+        <v>0.59</v>
       </c>
       <c r="C22" t="n">
-        <v>1.16</v>
+        <v>0.59</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -837,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.87</v>
+        <v>4.77</v>
       </c>
       <c r="C23" t="n">
-        <v>1.87</v>
+        <v>4.77</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -857,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-142.08</v>
+        <v>4.55</v>
       </c>
       <c r="C24" t="n">
-        <v>142.08</v>
+        <v>4.55</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -877,10 +877,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.08</v>
+        <v>2.57</v>
       </c>
       <c r="C25" t="n">
-        <v>5.08</v>
+        <v>2.57</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -897,10 +897,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02</v>
+        <v>-4.4</v>
       </c>
       <c r="C26" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -917,10 +917,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.51</v>
+        <v>10.09</v>
       </c>
       <c r="C27" t="n">
-        <v>0.51</v>
+        <v>10.09</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -937,10 +937,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.93</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>3.93</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -957,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.95</v>
+        <v>15.8</v>
       </c>
       <c r="C29" t="n">
-        <v>5.95</v>
+        <v>15.8</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -977,10 +977,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.99</v>
+        <v>-14.07</v>
       </c>
       <c r="C30" t="n">
-        <v>7.99</v>
+        <v>14.07</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -997,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.57</v>
+        <v>8.08</v>
       </c>
       <c r="C31" t="n">
-        <v>2.57</v>
+        <v>8.08</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1017,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.77</v>
+        <v>-7.09</v>
       </c>
       <c r="C32" t="n">
-        <v>6.77</v>
+        <v>7.09</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1037,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.32</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>12.32</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1057,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C34" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1077,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.34</v>
+        <v>5.07</v>
       </c>
       <c r="C35" t="n">
-        <v>3.34</v>
+        <v>5.07</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1097,10 +1097,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.87</v>
+        <v>-171.79</v>
       </c>
       <c r="C36" t="n">
-        <v>5.87</v>
+        <v>171.79</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.57</v>
+        <v>4.74</v>
       </c>
       <c r="C37" t="n">
-        <v>2.57</v>
+        <v>4.74</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1137,10 +1137,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.81</v>
+        <v>-6.65</v>
       </c>
       <c r="C38" t="n">
-        <v>4.81</v>
+        <v>6.65</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1157,10 +1157,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.05</v>
+        <v>-3.52</v>
       </c>
       <c r="C39" t="n">
-        <v>5.05</v>
+        <v>3.52</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1177,10 +1177,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.8</v>
+        <v>-1.13</v>
       </c>
       <c r="C40" t="n">
-        <v>5.8</v>
+        <v>1.13</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1197,10 +1197,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.66</v>
+        <v>-1.03</v>
       </c>
       <c r="C41" t="n">
-        <v>0.66</v>
+        <v>1.03</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1217,10 +1217,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.43</v>
+        <v>12.56</v>
       </c>
       <c r="C42" t="n">
-        <v>0.43</v>
+        <v>12.56</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1237,10 +1237,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.14</v>
+        <v>-4.2</v>
       </c>
       <c r="C43" t="n">
-        <v>11.14</v>
+        <v>4.2</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1257,10 +1257,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-168.97</v>
+        <v>-5.28</v>
       </c>
       <c r="C44" t="n">
-        <v>168.97</v>
+        <v>5.28</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.75</v>
+        <v>4.06</v>
       </c>
       <c r="C45" t="n">
-        <v>5.75</v>
+        <v>4.06</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1297,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.64</v>
+        <v>-3.02</v>
       </c>
       <c r="C46" t="n">
-        <v>11.64</v>
+        <v>3.02</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1317,10 +1317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.75</v>
+        <v>-0.4</v>
       </c>
       <c r="C47" t="n">
-        <v>2.75</v>
+        <v>0.4</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1337,10 +1337,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.11</v>
+        <v>3.32</v>
       </c>
       <c r="C48" t="n">
-        <v>6.11</v>
+        <v>3.32</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1357,10 +1357,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-8.26</v>
+        <v>-0.27</v>
       </c>
       <c r="C49" t="n">
-        <v>8.26</v>
+        <v>0.27</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1377,10 +1377,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-16.25</v>
+        <v>-0.79</v>
       </c>
       <c r="C50" t="n">
-        <v>16.25</v>
+        <v>0.79</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1397,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.4</v>
+        <v>5.39</v>
       </c>
       <c r="C51" t="n">
-        <v>4.4</v>
+        <v>5.39</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1417,10 +1417,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.21</v>
+        <v>-2.1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1437,10 +1437,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.73</v>
+        <v>-4.24</v>
       </c>
       <c r="C53" t="n">
-        <v>3.73</v>
+        <v>4.24</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1457,10 +1457,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.82</v>
+        <v>-6.34</v>
       </c>
       <c r="C54" t="n">
-        <v>0.82</v>
+        <v>6.34</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1477,10 +1477,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.89</v>
+        <v>1.89</v>
       </c>
       <c r="C55" t="n">
-        <v>7.89</v>
+        <v>1.89</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1497,10 +1497,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.46</v>
+        <v>14.4</v>
       </c>
       <c r="C56" t="n">
-        <v>4.46</v>
+        <v>14.4</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1517,10 +1517,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.65</v>
+        <v>-169.67</v>
       </c>
       <c r="C57" t="n">
-        <v>6.65</v>
+        <v>169.67</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1537,10 +1537,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.03</v>
+        <v>-13.56</v>
       </c>
       <c r="C58" t="n">
-        <v>7.03</v>
+        <v>13.56</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1557,10 +1557,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.15</v>
+        <v>-0.63</v>
       </c>
       <c r="C59" t="n">
-        <v>0.15</v>
+        <v>0.63</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1577,10 +1577,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.539999999999999</v>
+        <v>-178.35</v>
       </c>
       <c r="C60" t="n">
-        <v>8.539999999999999</v>
+        <v>178.35</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1597,10 +1597,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-167.03</v>
+        <v>-0.99</v>
       </c>
       <c r="C61" t="n">
-        <v>167.03</v>
+        <v>0.99</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1617,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-7.75</v>
+        <v>3.4</v>
       </c>
       <c r="C62" t="n">
-        <v>7.75</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1637,10 +1637,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-9.56</v>
+        <v>4.29</v>
       </c>
       <c r="C63" t="n">
-        <v>9.56</v>
+        <v>4.29</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1657,10 +1657,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-9.66</v>
+        <v>3.74</v>
       </c>
       <c r="C64" t="n">
-        <v>9.66</v>
+        <v>3.74</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1677,10 +1677,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="C65" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1697,10 +1697,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.45</v>
+        <v>5.6</v>
       </c>
       <c r="C66" t="n">
-        <v>15.45</v>
+        <v>5.6</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1717,10 +1717,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.14</v>
+        <v>-9.56</v>
       </c>
       <c r="C67" t="n">
-        <v>2.14</v>
+        <v>9.56</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1737,10 +1737,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.44</v>
+        <v>4.58</v>
       </c>
       <c r="C68" t="n">
-        <v>2.44</v>
+        <v>4.58</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1757,10 +1757,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.75</v>
+        <v>8.98</v>
       </c>
       <c r="C69" t="n">
-        <v>9.75</v>
+        <v>8.98</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1777,10 +1777,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.73</v>
+        <v>-5.59</v>
       </c>
       <c r="C70" t="n">
-        <v>1.73</v>
+        <v>5.59</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1797,10 +1797,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.06</v>
+        <v>-7.65</v>
       </c>
       <c r="C71" t="n">
-        <v>5.06</v>
+        <v>7.65</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1817,10 +1817,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.37</v>
+        <v>8.16</v>
       </c>
       <c r="C72" t="n">
-        <v>5.37</v>
+        <v>8.16</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1837,10 +1837,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.35</v>
+        <v>-1.43</v>
       </c>
       <c r="C73" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1857,10 +1857,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.02</v>
+        <v>1.96</v>
       </c>
       <c r="C74" t="n">
-        <v>6.02</v>
+        <v>1.96</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1877,10 +1877,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.08</v>
+        <v>-176.72</v>
       </c>
       <c r="C75" t="n">
-        <v>7.08</v>
+        <v>176.72</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1897,10 +1897,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.26</v>
+        <v>-5.76</v>
       </c>
       <c r="C76" t="n">
-        <v>8.26</v>
+        <v>5.76</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1917,10 +1917,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.68</v>
+        <v>2.64</v>
       </c>
       <c r="C77" t="n">
-        <v>3.68</v>
+        <v>2.64</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1937,10 +1937,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.7</v>
+        <v>10.62</v>
       </c>
       <c r="C78" t="n">
-        <v>1.7</v>
+        <v>10.62</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1957,10 +1957,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.2</v>
+        <v>-176</v>
       </c>
       <c r="C79" t="n">
-        <v>10.2</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1977,10 +1977,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.49</v>
+        <v>-0.13</v>
       </c>
       <c r="C80" t="n">
-        <v>7.49</v>
+        <v>0.13</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1997,10 +1997,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.6</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>4.6</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.72</v>
+        <v>4.54</v>
       </c>
       <c r="C82" t="n">
-        <v>3.72</v>
+        <v>4.54</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2037,10 +2037,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.5</v>
+        <v>-152.98</v>
       </c>
       <c r="C83" t="n">
-        <v>9.5</v>
+        <v>152.98</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -2057,10 +2057,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.54</v>
+        <v>3.68</v>
       </c>
       <c r="C84" t="n">
-        <v>1.54</v>
+        <v>3.68</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -2077,10 +2077,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.73</v>
+        <v>3.39</v>
       </c>
       <c r="C85" t="n">
-        <v>8.73</v>
+        <v>3.39</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -2097,10 +2097,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="C86" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -2117,10 +2117,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.98</v>
+        <v>7.25</v>
       </c>
       <c r="C87" t="n">
-        <v>1.98</v>
+        <v>7.25</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -2137,10 +2137,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.44</v>
+        <v>-3.68</v>
       </c>
       <c r="C88" t="n">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -2157,10 +2157,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.28</v>
+        <v>3.13</v>
       </c>
       <c r="C89" t="n">
-        <v>2.28</v>
+        <v>3.13</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -2177,10 +2177,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.14</v>
+        <v>-3.4</v>
       </c>
       <c r="C90" t="n">
-        <v>1.14</v>
+        <v>3.4</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -2197,10 +2197,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.33</v>
+        <v>9.49</v>
       </c>
       <c r="C91" t="n">
-        <v>4.33</v>
+        <v>9.49</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -2217,10 +2217,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.45</v>
+        <v>6.01</v>
       </c>
       <c r="C92" t="n">
-        <v>10.45</v>
+        <v>6.01</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -2237,10 +2237,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-3.39</v>
+        <v>1.47</v>
       </c>
       <c r="C93" t="n">
-        <v>3.39</v>
+        <v>1.47</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -2257,10 +2257,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.49</v>
+        <v>6.64</v>
       </c>
       <c r="C94" t="n">
-        <v>0.49</v>
+        <v>6.64</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -2277,10 +2277,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-8.460000000000001</v>
+        <v>6.67</v>
       </c>
       <c r="C95" t="n">
-        <v>8.460000000000001</v>
+        <v>6.67</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.06</v>
+        <v>12.95</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06</v>
+        <v>12.95</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -2317,10 +2317,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.74</v>
+        <v>6.73</v>
       </c>
       <c r="C97" t="n">
-        <v>5.74</v>
+        <v>6.73</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -2337,10 +2337,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-7.22</v>
+        <v>-173.06</v>
       </c>
       <c r="C98" t="n">
-        <v>7.22</v>
+        <v>173.06</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -2357,10 +2357,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.34</v>
+        <v>2.81</v>
       </c>
       <c r="C99" t="n">
-        <v>2.34</v>
+        <v>2.81</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -2377,10 +2377,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.95</v>
+        <v>2.34</v>
       </c>
       <c r="C100" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -2397,10 +2397,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.56</v>
+        <v>-15.98</v>
       </c>
       <c r="C101" t="n">
-        <v>1.56</v>
+        <v>15.98</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
